--- a/Day3-函数与类继承与派生/C++内存分配.xlsx
+++ b/Day3-函数与类继承与派生/C++内存分配.xlsx
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
